--- a/data/outputs/数学期刊(下)_altmetric/80Czechoslovak Mathematical Journal.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/80Czechoslovak Mathematical Journal.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE76"/>
+  <dimension ref="A1:CF76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -780,6 +780,11 @@
       <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>citeulike</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
         </is>
       </c>
     </row>
@@ -1003,6 +1008,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1252,6 +1260,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1505,6 +1516,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1750,6 +1764,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1993,6 +2010,9 @@
         <v>0</v>
       </c>
       <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2236,6 +2256,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2485,6 +2508,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2730,6 +2756,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2987,6 +3016,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3234,6 +3266,9 @@
         <v>0</v>
       </c>
       <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3477,6 +3512,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3714,6 +3752,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3963,6 +4004,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4212,6 +4256,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4461,6 +4508,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4710,6 +4760,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4961,6 +5014,9 @@
         <v>0</v>
       </c>
       <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5204,6 +5260,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5455,6 +5514,9 @@
         <v>0</v>
       </c>
       <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5698,6 +5760,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5947,6 +6012,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6192,6 +6260,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6441,6 +6512,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6690,6 +6764,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6947,6 +7024,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7200,6 +7280,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7449,6 +7532,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7704,6 +7790,9 @@
         <v>0</v>
       </c>
       <c r="CE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7947,6 +8036,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8196,6 +8288,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8445,6 +8540,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8694,6 +8792,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8956,6 +9057,9 @@
       </c>
       <c r="CE34" t="n">
         <v>0</v>
+      </c>
+      <c r="CF34" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="35">
@@ -9194,6 +9298,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9443,6 +9550,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9692,6 +9802,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9937,6 +10050,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10186,6 +10302,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10435,6 +10554,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10692,6 +10814,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10941,6 +11066,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11190,6 +11318,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11437,6 +11568,9 @@
         <v>0</v>
       </c>
       <c r="CE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11680,6 +11814,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11929,6 +12066,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12184,6 +12324,9 @@
         <v>0</v>
       </c>
       <c r="CE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12423,6 +12566,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12672,6 +12818,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12919,6 +13068,9 @@
         <v>0</v>
       </c>
       <c r="CE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13162,6 +13314,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13409,6 +13564,9 @@
         <v>0</v>
       </c>
       <c r="CE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13648,6 +13806,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13895,6 +14056,9 @@
         <v>0</v>
       </c>
       <c r="CE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14134,6 +14298,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14371,6 +14538,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14620,6 +14790,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14871,6 +15044,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15120,6 +15296,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15369,6 +15548,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15618,6 +15800,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15867,6 +16052,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16120,6 +16308,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16375,6 +16566,9 @@
         <v>0</v>
       </c>
       <c r="CE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16618,6 +16812,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16865,6 +17062,9 @@
         <v>0</v>
       </c>
       <c r="CE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17108,6 +17308,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17353,6 +17556,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17602,6 +17808,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17851,6 +18060,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18106,6 +18318,9 @@
         <v>0</v>
       </c>
       <c r="CE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18349,6 +18564,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18594,6 +18812,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18843,6 +19064,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19094,6 +19318,9 @@
         <v>0</v>
       </c>
       <c r="CE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19337,6 +19564,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
